--- a/data/pca/factorExposure/factorExposure_2013-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001110999952004456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00203234578115901</v>
+      </c>
+      <c r="C2">
+        <v>-0.03224191794738726</v>
+      </c>
+      <c r="D2">
+        <v>-0.005191853202503063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001962733839242794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006052562625205245</v>
+      </c>
+      <c r="C4">
+        <v>-0.08339244423371743</v>
+      </c>
+      <c r="D4">
+        <v>-0.0799687925247282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000403699100524391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01351219487865241</v>
+      </c>
+      <c r="C6">
+        <v>-0.1070498900177815</v>
+      </c>
+      <c r="D6">
+        <v>-0.03634835046085252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001745549729418933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004779867858118628</v>
+      </c>
+      <c r="C7">
+        <v>-0.05144217911784035</v>
+      </c>
+      <c r="D7">
+        <v>-0.03837042041615887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001511487134815731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005678689502667073</v>
+      </c>
+      <c r="C8">
+        <v>-0.03705514946186956</v>
+      </c>
+      <c r="D8">
+        <v>-0.0395418929328906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005091510083224316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00401643759346915</v>
+      </c>
+      <c r="C9">
+        <v>-0.06836979129835506</v>
+      </c>
+      <c r="D9">
+        <v>-0.07081136875005238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003212037571793845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005738562072751999</v>
+      </c>
+      <c r="C10">
+        <v>-0.07531082286412967</v>
+      </c>
+      <c r="D10">
+        <v>0.2107079281628255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00463788145607614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005140694198041256</v>
+      </c>
+      <c r="C11">
+        <v>-0.07796434901664349</v>
+      </c>
+      <c r="D11">
+        <v>-0.06399916235524564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005843125620397358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003834380902387385</v>
+      </c>
+      <c r="C12">
+        <v>-0.06287619427410983</v>
+      </c>
+      <c r="D12">
+        <v>-0.04619471377290493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003428639111812266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008672202077825347</v>
+      </c>
+      <c r="C13">
+        <v>-0.06886455506647711</v>
+      </c>
+      <c r="D13">
+        <v>-0.06975759570949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00271408531631096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001555953886006124</v>
+      </c>
+      <c r="C14">
+        <v>-0.04569653278332407</v>
+      </c>
+      <c r="D14">
+        <v>-0.01438764257054323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002629103697368423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005865610334346345</v>
+      </c>
+      <c r="C15">
+        <v>-0.03846424165242737</v>
+      </c>
+      <c r="D15">
+        <v>-0.03793102783469081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002597469993678984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00486276302524343</v>
+      </c>
+      <c r="C16">
+        <v>-0.06405649307774401</v>
+      </c>
+      <c r="D16">
+        <v>-0.04916493070887134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005511033752501882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008993957820083507</v>
+      </c>
+      <c r="C20">
+        <v>-0.06438066190802115</v>
+      </c>
+      <c r="D20">
+        <v>-0.05660471301407851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004235025102433745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009941817811406945</v>
+      </c>
+      <c r="C21">
+        <v>-0.022959884124758</v>
+      </c>
+      <c r="D21">
+        <v>-0.03485879863947165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01630933474593484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006867868755295295</v>
+      </c>
+      <c r="C22">
+        <v>-0.09208773970946446</v>
+      </c>
+      <c r="D22">
+        <v>-0.09917311194705103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0166551121128719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006659123451724356</v>
+      </c>
+      <c r="C23">
+        <v>-0.09312150716055632</v>
+      </c>
+      <c r="D23">
+        <v>-0.09974529485492431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003212409309219209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004749273753618559</v>
+      </c>
+      <c r="C24">
+        <v>-0.07214665540423856</v>
+      </c>
+      <c r="D24">
+        <v>-0.06085736508949132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004806936554477594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002768938469142577</v>
+      </c>
+      <c r="C25">
+        <v>-0.07695381005128381</v>
+      </c>
+      <c r="D25">
+        <v>-0.06547355546913025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00596899575078861</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003570362685992223</v>
+      </c>
+      <c r="C26">
+        <v>-0.04091890185307905</v>
+      </c>
+      <c r="D26">
+        <v>-0.02791628838309006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007002288508472366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0002931516161437477</v>
+      </c>
+      <c r="C28">
+        <v>-0.1271375840788823</v>
+      </c>
+      <c r="D28">
+        <v>0.3085242570644629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002589867021829097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003267494989382336</v>
+      </c>
+      <c r="C29">
+        <v>-0.04773944558646988</v>
+      </c>
+      <c r="D29">
+        <v>-0.01645545693387955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00444714668721972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008704438531931901</v>
+      </c>
+      <c r="C30">
+        <v>-0.1362653468209216</v>
+      </c>
+      <c r="D30">
+        <v>-0.1111426420699824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1.163290261029422e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006084461215433475</v>
+      </c>
+      <c r="C31">
+        <v>-0.04536079210190076</v>
+      </c>
+      <c r="D31">
+        <v>-0.03177690613383388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002303313132060319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003995305371606832</v>
+      </c>
+      <c r="C32">
+        <v>-0.04112684643873959</v>
+      </c>
+      <c r="D32">
+        <v>-0.01232902689014328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003134355786196354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007703610496286147</v>
+      </c>
+      <c r="C33">
+        <v>-0.08213258866197082</v>
+      </c>
+      <c r="D33">
+        <v>-0.07481765510271163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005095602347784617</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003705482824099554</v>
+      </c>
+      <c r="C34">
+        <v>-0.05690973452725811</v>
+      </c>
+      <c r="D34">
+        <v>-0.04635090134690625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003584736248172422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004799378114893775</v>
+      </c>
+      <c r="C35">
+        <v>-0.03811092790884163</v>
+      </c>
+      <c r="D35">
+        <v>-0.01211721484564875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004323788073352917</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001353737634994418</v>
+      </c>
+      <c r="C36">
+        <v>-0.02333315728780151</v>
+      </c>
+      <c r="D36">
+        <v>-0.02126521839718172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002224746698093123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009360584090649026</v>
+      </c>
+      <c r="C38">
+        <v>-0.03359424040420693</v>
+      </c>
+      <c r="D38">
+        <v>-0.0217331781531318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01342045087721577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009594908156596838</v>
+      </c>
+      <c r="C39">
+        <v>-0.1140110851406183</v>
+      </c>
+      <c r="D39">
+        <v>-0.08453943488642281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007635514285854128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002375667802398291</v>
+      </c>
+      <c r="C40">
+        <v>-0.08755684060194817</v>
+      </c>
+      <c r="D40">
+        <v>-0.02532571984466944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001090702593283775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007361184231541157</v>
+      </c>
+      <c r="C41">
+        <v>-0.03857875531466565</v>
+      </c>
+      <c r="D41">
+        <v>-0.03560256813067413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0030402502327052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003366233640061106</v>
+      </c>
+      <c r="C43">
+        <v>-0.05030439002362445</v>
+      </c>
+      <c r="D43">
+        <v>-0.02791435011057081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00456958454645981</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00372766042251942</v>
+      </c>
+      <c r="C44">
+        <v>-0.10811339224522</v>
+      </c>
+      <c r="D44">
+        <v>-0.08510764801208084</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002449637895283284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002351588558714096</v>
+      </c>
+      <c r="C46">
+        <v>-0.03494250140529573</v>
+      </c>
+      <c r="D46">
+        <v>-0.03375867255698418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009863738974820483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002936688654595874</v>
+      </c>
+      <c r="C47">
+        <v>-0.03987211632595131</v>
+      </c>
+      <c r="D47">
+        <v>-0.02396723521517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004097784665491204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006405541392610242</v>
+      </c>
+      <c r="C48">
+        <v>-0.02857341980301213</v>
+      </c>
+      <c r="D48">
+        <v>-0.03035098625108572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0129451787589547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01415952957244296</v>
+      </c>
+      <c r="C49">
+        <v>-0.1711546660209788</v>
+      </c>
+      <c r="D49">
+        <v>-0.03490811837696775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-5.004526448505611e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003651327171553853</v>
+      </c>
+      <c r="C50">
+        <v>-0.04199794900828301</v>
+      </c>
+      <c r="D50">
+        <v>-0.03575742584669448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001851013277605538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00422471480449773</v>
+      </c>
+      <c r="C51">
+        <v>-0.01958771182241891</v>
+      </c>
+      <c r="D51">
+        <v>-0.03286052799988665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001455394966141838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02035715060562211</v>
+      </c>
+      <c r="C53">
+        <v>-0.1647976295796643</v>
+      </c>
+      <c r="D53">
+        <v>-0.05220113268599279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0001453845549570113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008573125014709327</v>
+      </c>
+      <c r="C54">
+        <v>-0.0551785872166561</v>
+      </c>
+      <c r="D54">
+        <v>-0.04330203506085022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004627415510309952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009351327721202028</v>
+      </c>
+      <c r="C55">
+        <v>-0.1049590817349534</v>
+      </c>
+      <c r="D55">
+        <v>-0.05227278253592852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003631379906729543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01964770592572927</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713564699927722</v>
+      </c>
+      <c r="D56">
+        <v>-0.0496849647210772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00770169177901815</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01944850230460076</v>
+      </c>
+      <c r="C58">
+        <v>-0.100978233799893</v>
+      </c>
+      <c r="D58">
+        <v>-0.07759656355907356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008557124707977305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009684185350779301</v>
+      </c>
+      <c r="C59">
+        <v>-0.1704637987022095</v>
+      </c>
+      <c r="D59">
+        <v>0.2802558114905059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00660113857556039</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02345152874352113</v>
+      </c>
+      <c r="C60">
+        <v>-0.220735119719773</v>
+      </c>
+      <c r="D60">
+        <v>-0.02980544580680267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01472511897159874</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001997869435385605</v>
+      </c>
+      <c r="C61">
+        <v>-0.09408343356504535</v>
+      </c>
+      <c r="D61">
+        <v>-0.06308307769759475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1814932132137239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.143795112078801</v>
+      </c>
+      <c r="C62">
+        <v>-0.07663592977200273</v>
+      </c>
+      <c r="D62">
+        <v>-0.05468044423606955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001446618008587826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006403768867746564</v>
+      </c>
+      <c r="C63">
+        <v>-0.05899487874247564</v>
+      </c>
+      <c r="D63">
+        <v>-0.02502457846519661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00712458515408554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01471217783048942</v>
+      </c>
+      <c r="C64">
+        <v>-0.1023655915739054</v>
+      </c>
+      <c r="D64">
+        <v>-0.06433135766626467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007377999122610545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01717273015153594</v>
+      </c>
+      <c r="C65">
+        <v>-0.1137210156817949</v>
+      </c>
+      <c r="D65">
+        <v>-0.02948354708480494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008282884113444865</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0122030257698285</v>
+      </c>
+      <c r="C66">
+        <v>-0.1522183777200694</v>
+      </c>
+      <c r="D66">
+        <v>-0.1226352681267387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00245897856809756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01544416439031673</v>
+      </c>
+      <c r="C67">
+        <v>-0.06293753846857084</v>
+      </c>
+      <c r="D67">
+        <v>-0.03317060278486453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008919023387818324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001438418376446397</v>
+      </c>
+      <c r="C68">
+        <v>-0.1098852869293147</v>
+      </c>
+      <c r="D68">
+        <v>0.2618769466851822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002591254795900408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005846706461290599</v>
+      </c>
+      <c r="C69">
+        <v>-0.04722509553048227</v>
+      </c>
+      <c r="D69">
+        <v>-0.04305252424174456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001719259753203273</v>
+      </c>
+      <c r="C70">
+        <v>-0.001814046999941273</v>
+      </c>
+      <c r="D70">
+        <v>-0.001939064585688419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005257608173566409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00628090061341741</v>
+      </c>
+      <c r="C71">
+        <v>-0.112498346670508</v>
+      </c>
+      <c r="D71">
+        <v>0.2836259165512371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008806794901232561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01547543943357423</v>
+      </c>
+      <c r="C72">
+        <v>-0.1503582121825904</v>
+      </c>
+      <c r="D72">
+        <v>-0.0258634373074879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01340270493628288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02925736789441362</v>
+      </c>
+      <c r="C73">
+        <v>-0.2810488841473677</v>
+      </c>
+      <c r="D73">
+        <v>-0.05162117355764283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004148982506397775</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001489882536424025</v>
+      </c>
+      <c r="C74">
+        <v>-0.1042643178896996</v>
+      </c>
+      <c r="D74">
+        <v>-0.04340911280325598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006286765827485348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01073290346201557</v>
+      </c>
+      <c r="C75">
+        <v>-0.1313405843488553</v>
+      </c>
+      <c r="D75">
+        <v>-0.03657352284826458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01178131837321246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0213197742686517</v>
+      </c>
+      <c r="C76">
+        <v>-0.1451394519922104</v>
+      </c>
+      <c r="D76">
+        <v>-0.07400692316690062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002299078179393217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02431715386798844</v>
+      </c>
+      <c r="C77">
+        <v>-0.1319437332086691</v>
+      </c>
+      <c r="D77">
+        <v>-0.06436760349307076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003378629831155588</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01417206639975741</v>
+      </c>
+      <c r="C78">
+        <v>-0.09099479836693226</v>
+      </c>
+      <c r="D78">
+        <v>-0.06973420598210153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02716080160620772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03686023654639449</v>
+      </c>
+      <c r="C79">
+        <v>-0.1557047190460542</v>
+      </c>
+      <c r="D79">
+        <v>-0.03511339623607444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005286671664507327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01060176928850435</v>
+      </c>
+      <c r="C80">
+        <v>-0.04161186088494892</v>
+      </c>
+      <c r="D80">
+        <v>-0.0329797078379834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.995511420565684e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0145962058429468</v>
+      </c>
+      <c r="C81">
+        <v>-0.1208591934419033</v>
+      </c>
+      <c r="D81">
+        <v>-0.05723741698723635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006697689257723107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01956937042842526</v>
+      </c>
+      <c r="C82">
+        <v>-0.1417305055654835</v>
+      </c>
+      <c r="D82">
+        <v>-0.04770708826225048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006081829749442402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009683860860253328</v>
+      </c>
+      <c r="C83">
+        <v>-0.0559449861407641</v>
+      </c>
+      <c r="D83">
+        <v>-0.05073917306341475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01389683812663621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01173288627305101</v>
+      </c>
+      <c r="C84">
+        <v>-0.03170222658274947</v>
+      </c>
+      <c r="D84">
+        <v>-0.003506339847256396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01584367934075744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02800065379965867</v>
+      </c>
+      <c r="C85">
+        <v>-0.1283442905726576</v>
+      </c>
+      <c r="D85">
+        <v>-0.05305724876012264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002613179641745698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005557288131191582</v>
+      </c>
+      <c r="C86">
+        <v>-0.04935126360958669</v>
+      </c>
+      <c r="D86">
+        <v>-0.02292221205839249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007254434235258036</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0101336086180918</v>
+      </c>
+      <c r="C87">
+        <v>-0.1276917481495859</v>
+      </c>
+      <c r="D87">
+        <v>-0.08088916801418411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01407099207121392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002912108330285161</v>
+      </c>
+      <c r="C88">
+        <v>-0.06874752351230531</v>
+      </c>
+      <c r="D88">
+        <v>-0.01754531420874478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01792506915810218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0008243496210092267</v>
+      </c>
+      <c r="C89">
+        <v>-0.1636900451484221</v>
+      </c>
+      <c r="D89">
+        <v>0.3436643892809633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005336706379670366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007577795848118524</v>
+      </c>
+      <c r="C90">
+        <v>-0.1424199871179961</v>
+      </c>
+      <c r="D90">
+        <v>0.3146769705115964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001974466657765297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01029628770745381</v>
+      </c>
+      <c r="C91">
+        <v>-0.1043998547193438</v>
+      </c>
+      <c r="D91">
+        <v>-0.02086861224143814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01452926015649186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000667964571765328</v>
+      </c>
+      <c r="C92">
+        <v>-0.1525257001810133</v>
+      </c>
+      <c r="D92">
+        <v>0.3267872453025328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003177145955500414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005569705635894455</v>
+      </c>
+      <c r="C93">
+        <v>-0.1259453896960713</v>
+      </c>
+      <c r="D93">
+        <v>0.3130279461078833</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004128043564493431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02233332755803872</v>
+      </c>
+      <c r="C94">
+        <v>-0.1565784160841743</v>
+      </c>
+      <c r="D94">
+        <v>-0.03739771110258124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004454231785913572</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01598660464429948</v>
+      </c>
+      <c r="C95">
+        <v>-0.1244128890964346</v>
+      </c>
+      <c r="D95">
+        <v>-0.07198149089993329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002447679731246249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03449411849118759</v>
+      </c>
+      <c r="C97">
+        <v>-0.1785904801982758</v>
+      </c>
+      <c r="D97">
+        <v>-0.04321812643767083</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006448581780901906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03569089236592283</v>
+      </c>
+      <c r="C98">
+        <v>-0.2549386325355908</v>
+      </c>
+      <c r="D98">
+        <v>-0.04348069728726481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9810030243283948</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9826962478034631</v>
+      </c>
+      <c r="C99">
+        <v>0.1097386947837602</v>
+      </c>
+      <c r="D99">
+        <v>0.03269507385463866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002551212323403873</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003308345485278771</v>
+      </c>
+      <c r="C101">
+        <v>-0.04775825327458431</v>
+      </c>
+      <c r="D101">
+        <v>-0.01682010842271827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
